--- a/Docs/diagramme de Gantt.xlsx
+++ b/Docs/diagramme de Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\SAE 203\pong\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B4AF0B-F478-4E2C-B92D-AB7A6A8E2044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC3F922-90C8-40AC-A700-F51D890A781C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A73F89E-F015-4D54-8199-E6CADEF4336D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>nom de la tâche</t>
   </si>
@@ -90,49 +90,55 @@
     <t>code pong</t>
   </si>
   <si>
+    <t>code joystick</t>
+  </si>
+  <si>
+    <t>librairie joystick</t>
+  </si>
+  <si>
+    <t>synchronisation  jeu</t>
+  </si>
+  <si>
+    <t>pad</t>
+  </si>
+  <si>
+    <t>balle</t>
+  </si>
+  <si>
+    <t>librairie esp-now</t>
+  </si>
+  <si>
+    <t>FINI</t>
+  </si>
+  <si>
+    <t>connexion 2 ESP</t>
+  </si>
+  <si>
+    <t>fonctionnalités (timer, score …)</t>
+  </si>
+  <si>
+    <t>prévisionnel</t>
+  </si>
+  <si>
+    <t>librairie WIFI</t>
+  </si>
+  <si>
     <t>connection 2 ESP</t>
   </si>
   <si>
-    <t>code joystick</t>
-  </si>
-  <si>
-    <t>librairie WIFI</t>
-  </si>
-  <si>
-    <t>librairie joystick</t>
-  </si>
-  <si>
-    <t>synchronisation  jeu</t>
-  </si>
-  <si>
-    <t>score timer etc…</t>
-  </si>
-  <si>
-    <t>pad</t>
-  </si>
-  <si>
-    <t>balle</t>
-  </si>
-  <si>
-    <t>librairie esp-now</t>
-  </si>
-  <si>
-    <t>?%</t>
-  </si>
-  <si>
-    <t>FINI</t>
-  </si>
-  <si>
     <t>code pad</t>
   </si>
   <si>
     <t>code balle</t>
   </si>
   <si>
-    <t>prévisionnel</t>
-  </si>
-  <si>
     <t>fonctionnalité (score timer…)</t>
+  </si>
+  <si>
+    <t>Diagramme de Gantt</t>
+  </si>
+  <si>
+    <t>fonctionnement joystick</t>
   </si>
 </sst>
 </file>
@@ -170,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +201,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -254,15 +266,259 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -301,79 +557,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -382,41 +565,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,395 +943,460 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E799E04C-509C-4F2B-9BF9-E3486FBFB459}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="49" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="52"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="52"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="52"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="52"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="52"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="59"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J25" s="34"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="34"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="34"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="16">
+        <v>1</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="22">
+        <v>1</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="38">
+        <v>1</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="40">
+        <v>1</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="34"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="16">
+        <v>0</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="17">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="17">
-        <v>1</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="17">
-        <v>1</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="17">
-        <v>0</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="17">
-        <v>0</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="18">
-        <v>0</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H20" s="1" t="s">
+      <c r="B36" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="E40" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="F40" s="47" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I22" t="s">
+      <c r="G40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="H40" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Docs/diagramme de Gantt.xlsx
+++ b/Docs/diagramme de Gantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\SAE 203\pong\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\iutbg-smbetu.univ-lyon1.fr\homes\Documents\SAE 203\pong\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC3F922-90C8-40AC-A700-F51D890A781C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1207F2-3D76-4880-B4F6-D5AA20C3B03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A73F89E-F015-4D54-8199-E6CADEF4336D}"/>
   </bookViews>
@@ -565,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -575,15 +575,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -629,6 +625,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E799E04C-509C-4F2B-9BF9-E3486FBFB459}">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,31 +980,31 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="45" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1007,118 +1012,118 @@
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="52"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="52"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="52"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="52"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="52"/>
+      <c r="I9" s="48"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="56"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="52"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="57"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="52"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="52"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="59"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="55"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
@@ -1130,7 +1135,7 @@
       <c r="E17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="43" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1149,65 +1154,65 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J25" s="34"/>
+      <c r="J25" s="30"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J26" s="34"/>
+      <c r="J26" s="30"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="34"/>
+      <c r="J27" s="30"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="13">
         <v>1</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -1216,23 +1221,23 @@
       <c r="B29" s="8">
         <v>1</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -1241,146 +1246,150 @@
       <c r="B30" s="8">
         <v>1</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="18">
         <v>1</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
+      <c r="B32" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33" s="34">
         <v>1</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27" t="s">
+      <c r="C33" s="22"/>
+      <c r="D33" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="40">
+      <c r="B34" s="61">
         <v>1</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="34"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="30"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="16">
-        <v>0</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="19"/>
+      <c r="B35" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="C35" s="66"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="40"/>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
+      <c r="B36" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="42"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="67"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="67"/>
       <c r="C40" s="1" t="s">
         <v>16</v>
       </c>
@@ -1390,7 +1399,7 @@
       <c r="E40" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="47" t="s">
+      <c r="F40" s="43" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -1399,6 +1408,18 @@
       <c r="H40" s="1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="67"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="67"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="67"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/diagramme de Gantt.xlsx
+++ b/Docs/diagramme de Gantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\iutbg-smbetu.univ-lyon1.fr\homes\Documents\SAE 203\pong\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\SAE 203\pong\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1207F2-3D76-4880-B4F6-D5AA20C3B03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AB92AF-9809-4122-B2CF-1DB0499F0E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A73F89E-F015-4D54-8199-E6CADEF4336D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>nom de la tâche</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Mercredi M</t>
   </si>
   <si>
-    <t>Mercredi A</t>
-  </si>
-  <si>
     <t>Cléïa</t>
   </si>
   <si>
@@ -139,6 +136,12 @@
   </si>
   <si>
     <t>fonctionnement joystick</t>
+  </si>
+  <si>
+    <t>README</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +210,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -359,7 +368,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -370,16 +381,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -389,10 +426,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -400,71 +439,6 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -557,6 +531,45 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -565,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -574,66 +587,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -948,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E799E04C-509C-4F2B-9BF9-E3486FBFB459}">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,456 +986,506 @@
     <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="48"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="28"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
+        <v>18</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="48"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="28"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
+        <v>28</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="48"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="28"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+        <v>17</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="48"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="28"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="28"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="52"/>
+        <v>29</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="28"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="53"/>
+        <v>30</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="48"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="28"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
+        <v>19</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="48"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="28"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="55"/>
+        <v>31</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J25" s="30"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J26" s="30"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="30"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="51">
+        <v>1</v>
+      </c>
+      <c r="C28" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="13">
-        <v>1</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="8">
+        <v>33</v>
+      </c>
+      <c r="B29" s="44">
         <v>1</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
+      <c r="C29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="44">
+        <v>1</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="47">
+        <v>1</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="49">
+        <v>1</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="53">
+        <v>1</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="55">
+        <v>1</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="55">
+        <v>1</v>
+      </c>
+      <c r="C35" s="58"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="62"/>
+      <c r="I35" s="42"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B36" s="57">
         <v>1</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="18">
-        <v>1</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="32">
-        <v>0.6</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="34">
-        <v>1</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="61">
-        <v>1</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="30"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="65">
-        <v>0.7</v>
-      </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="40"/>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="36">
-        <v>0.4</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="59"/>
+      <c r="H36" s="63"/>
       <c r="I36" s="42"/>
     </row>
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="42"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I38" s="20"/>
+    </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
+      <c r="I39" s="20"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="C40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="A40" s="38"/>
+      <c r="I40" s="43"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="C41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F41" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="G41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
+      <c r="A42" s="38"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
+      <c r="A43" s="38"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
+      <c r="A44" s="38"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
